--- a/biology/Botanique/Melanthera_scandens/Melanthera_scandens.xlsx
+++ b/biology/Botanique/Melanthera_scandens/Melanthera_scandens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanthera scandens est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Melanthera, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe grimpante vivace pouvant atteindre 3 à 4 m de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe grimpante vivace pouvant atteindre 3 à 4 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très présente en Afrique tropicale, l'espèce a été observée du Sénégal à l'Éthiopie, également vers le sud, en Namibie, au Botswana, au Zimbabwe, au Mozambique et à Madagascar[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très présente en Afrique tropicale, l'espèce a été observée du Sénégal à l'Éthiopie, également vers le sud, en Namibie, au Botswana, au Zimbabwe, au Mozambique et à Madagascar.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parfois vendue sur les marchés locaux, elle entre occasionnellement dans l'alimentation humaine (soupes), mais feuilles, tiges et racines sont surtout utilisées, sous forme de décoctions ou d'applications, à des fins médicinales variées, car on lui prête des vertus cicatrisantes, anti-inflammatoires, purgatives ou hémostatiques. On l'emploie également pour traiter des troubles oculaires (trachome), l'épilepsie, les empoisonnements et pour accélérer les accouchements. On se sert également des brindilles pour l'hygiène dentaire[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parfois vendue sur les marchés locaux, elle entre occasionnellement dans l'alimentation humaine (soupes), mais feuilles, tiges et racines sont surtout utilisées, sous forme de décoctions ou d'applications, à des fins médicinales variées, car on lui prête des vertus cicatrisantes, anti-inflammatoires, purgatives ou hémostatiques. On l'emploie également pour traiter des troubles oculaires (trachome), l'épilepsie, les empoisonnements et pour accélérer les accouchements. On se sert également des brindilles pour l'hygiène dentaire.
 </t>
         </is>
       </c>
@@ -604,15 +622,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 juin 2020)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 juin 2020) :
 sous-espèce Lipotriche scandens subsp. dregei
 sous-espèce Lipotriche scandens subsp. madagascariensis
-Selon The Plant List            (16 juin 2020)[1] :
+Selon The Plant List            (16 juin 2020) :
 sous-espèce Melanthera scandens subsp. dregei (DC.) Wild
 sous-espèce Melanthera scandens subsp. madagascariensis (Baker) Wild
-Selon Tropicos                                           (16 juin 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Melanthera scandens subsp. dregei (DC.) Wild
 sous-espèce Melanthera scandens subsp. madagascariensis (Baker) Wild
 sous-espèce Melanthera scandens subsp. scandens
